--- a/ChunkingTest.xlsx
+++ b/ChunkingTest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Chunksize </t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Col. ONLY</t>
+  </si>
+  <si>
+    <t>N/A (split row and col)</t>
+  </si>
+  <si>
+    <t>Threads</t>
   </si>
 </sst>
 </file>
@@ -371,115 +377,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>30</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>754466</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>641386</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>608614</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>630682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1798856</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>1643520</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1604400</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>1615570</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>B3/B2</f>
-        <v>2.3842770913467275</v>
       </c>
       <c r="C4" s="2">
         <f>C3/C2</f>
-        <v>2.5624506927185813</v>
+        <v>2.3842770913467275</v>
       </c>
       <c r="D4" s="2">
         <f>D3/D2</f>
-        <v>2.6361536211786123</v>
+        <v>2.5624506927185813</v>
       </c>
       <c r="E4" s="2">
         <f>E3/E2</f>
+        <v>2.6361536211786123</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F3/F2</f>
         <v>2.5616237660183736</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>1937770</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>1949490</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>433956</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>1469920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>670978</v>
+      </c>
+      <c r="C13" s="1">
+        <v>809590</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1030280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>1937770</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1937770</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1937770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f>B14/B13</f>
+        <v>2.8879784434064901</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C14/C13</f>
+        <v>2.393520176879655</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D14/D13</f>
+        <v>1.8808188065380285</v>
       </c>
     </row>
   </sheetData>

--- a/ChunkingTest.xlsx
+++ b/ChunkingTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="4020" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="-1760" yWindow="8780" windowWidth="28800" windowHeight="12500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">Chunksize </t>
   </si>
@@ -50,10 +50,19 @@
     <t>Col. ONLY</t>
   </si>
   <si>
-    <t>N/A (split row and col)</t>
+    <t>Threads</t>
   </si>
   <si>
-    <t>Threads</t>
+    <t>Chunksize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tp </t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>HPC</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +128,1032 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>2.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7.0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.790298977645982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.995369130658677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.140265879225644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.684937286242396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.17501674979528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.550597449628889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.958236102935873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-100100448"/>
+        <c:axId val="-100098128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-100100448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-100098128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-100098128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-100100448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,19 +1419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +1448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -423,7 +1465,7 @@
         <v>630682</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -440,7 +1482,7 @@
         <v>1615570</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -461,8 +1503,8 @@
         <v>2.5616237660183736</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -473,7 +1515,7 @@
         <v>1949490</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -481,7 +1523,7 @@
         <v>433956</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -489,14 +1531,52 @@
         <v>1469920</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>1750</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -507,8 +1587,35 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="1">
         <v>670978</v>
       </c>
@@ -518,8 +1625,38 @@
       <c r="D13" s="2">
         <v>1030280</v>
       </c>
+      <c r="E13" s="1">
+        <v>622412</v>
+      </c>
+      <c r="F13" s="1">
+        <v>647401</v>
+      </c>
+      <c r="G13" s="1">
+        <v>670058</v>
+      </c>
+      <c r="I13" s="1">
+        <v>714477</v>
+      </c>
+      <c r="J13" s="1">
+        <v>658273</v>
+      </c>
+      <c r="K13" s="1">
+        <v>647330</v>
+      </c>
+      <c r="L13" s="1">
+        <v>686563</v>
+      </c>
+      <c r="M13" s="1">
+        <v>656901</v>
+      </c>
+      <c r="N13" s="1">
+        <v>682600</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="3">
         <v>1937770</v>
       </c>
@@ -529,8 +1666,20 @@
       <c r="D14" s="3">
         <v>1937770</v>
       </c>
+      <c r="E14" s="3">
+        <v>1937770</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1937770</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1937770</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" s="2">
         <f>B14/B13</f>
         <v>2.8879784434064901</v>
@@ -543,8 +1692,146 @@
         <f>D14/D13</f>
         <v>1.8808188065380285</v>
       </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:G15" si="0">E14/E13</f>
+        <v>3.1133236505722897</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9931526210185031</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8919436824871876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2131154</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1190390</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1068050</v>
+      </c>
+      <c r="E20" s="1">
+        <v>678654</v>
+      </c>
+      <c r="F20" s="1">
+        <v>578342</v>
+      </c>
+      <c r="G20" s="1">
+        <v>510454</v>
+      </c>
+      <c r="H20" s="1">
+        <v>468324</v>
+      </c>
+      <c r="I20" s="1">
+        <v>429821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <f>2131154/C20</f>
+        <v>1.7902989776459817</v>
+      </c>
+      <c r="D21" s="2">
+        <f>2131154/D20</f>
+        <v>1.9953691306586769</v>
+      </c>
+      <c r="E21" s="2">
+        <f>2131154/E20</f>
+        <v>3.1402658792256437</v>
+      </c>
+      <c r="F21" s="2">
+        <f>2131154/F20</f>
+        <v>3.6849372862423966</v>
+      </c>
+      <c r="G21" s="2">
+        <f>2131154/G20</f>
+        <v>4.1750167497952804</v>
+      </c>
+      <c r="H21" s="2">
+        <f>2131154/H20</f>
+        <v>4.5505974496288895</v>
+      </c>
+      <c r="I21" s="2">
+        <f>2131154/I20</f>
+        <v>4.9582361029358735</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>